--- a/Hardware/baseboard/order/bom.xlsx
+++ b/Hardware/baseboard/order/bom.xlsx
@@ -10,22 +10,19 @@
   <sheets>
     <sheet name="Components" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Parametric Search" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"Components"</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Sheet_Title" vbProcedure="false">"Parametric Search"</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Sheet_Title" vbProcedure="false">"Sheet3"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="180">
   <si>
     <t>Assembly</t>
   </si>
@@ -60,6 +57,36 @@
     <t>DERIV</t>
   </si>
   <si>
+    <t>POW-1540</t>
+  </si>
+  <si>
+    <t>R .....</t>
+  </si>
+  <si>
+    <t>2.3MR</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>587-1231-1-ND</t>
+  </si>
+  <si>
+    <t>6.3V</t>
+  </si>
+  <si>
+    <t>POW-4000:C4</t>
+  </si>
+  <si>
     <t>POW-3891</t>
   </si>
   <si>
@@ -75,13 +102,268 @@
     <t>WSLC-.015TR-ND</t>
   </si>
   <si>
-    <t>POW-4001</t>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>445-4116-1-ND</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>445-8095-1-ND</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>4.7uH</t>
+  </si>
+  <si>
+    <t>NRS8030T4R7MJGJ</t>
+  </si>
+  <si>
+    <t>587-2969-1-ND</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>490-6285-1-ND</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>30VBD,0.2A</t>
+  </si>
+  <si>
+    <t>SOT232</t>
+  </si>
+  <si>
+    <t>CMDSH2-3 CT-ND</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>20-TSSOP-EP</t>
+  </si>
+  <si>
+    <t>LTC3891EFE#PBF-ND</t>
+  </si>
+  <si>
+    <t>POW-4000</t>
+  </si>
+  <si>
+    <t>C6,C5</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>490-1262-1-ND</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>490-10525-2-ND</t>
+  </si>
+  <si>
+    <t>47nF</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>490-6140-1-ND</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>270kR</t>
+  </si>
+  <si>
+    <t>311-270KLRCT-ND </t>
+  </si>
+  <si>
+    <t>✓</t>
   </si>
   <si>
     <t>0.008R</t>
   </si>
   <si>
-    <t>PRL1632.008FCT-ND </t>
+    <t>PRL1632.008FCT-ND</t>
+  </si>
+  <si>
+    <t>R12,R13</t>
+  </si>
+  <si>
+    <t>10kR</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>R10,R9</t>
+  </si>
+  <si>
+    <t>1kR</t>
+  </si>
+  <si>
+    <t>POW-61032</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>BEAD</t>
+  </si>
+  <si>
+    <t>490-5986-1-ND</t>
+  </si>
+  <si>
+    <t>3.6uH</t>
+  </si>
+  <si>
+    <t>NRS8040T3R6NJGJ</t>
+  </si>
+  <si>
+    <t>587-2977-1-ND</t>
+  </si>
+  <si>
+    <t>4-6A</t>
+  </si>
+  <si>
+    <t>Low ESR</t>
+  </si>
+  <si>
+    <t>R3,R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>90k9R</t>
+  </si>
+  <si>
+    <t>311-90.9KLRCT-ND</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>54k9R</t>
+  </si>
+  <si>
+    <t>NOT FITTED</t>
+  </si>
+  <si>
+    <t>445-1266-1-ND</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>445-4112-1-ND</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>445-5958-1-ND</t>
+  </si>
+  <si>
+    <t>C4,C5</t>
+  </si>
+  <si>
+    <t>478-5236-1-ND</t>
+  </si>
+  <si>
+    <t>POW-8871</t>
+  </si>
+  <si>
+    <t>POW-DDC3350</t>
+  </si>
+  <si>
+    <t>C2,C3,C4</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>1276-2412-1-ND</t>
+  </si>
+  <si>
+    <t>399-4872-1-ND</t>
+  </si>
+  <si>
+    <t>POW-DDC3350A</t>
+  </si>
+  <si>
+    <t>TPS61235</t>
+  </si>
+  <si>
+    <t>9-VQFN-HR</t>
+  </si>
+  <si>
+    <t>296-44628-2-ND</t>
+  </si>
+  <si>
+    <t>POW-DRV01</t>
+  </si>
+  <si>
+    <t>R1,R2,R3,R4</t>
+  </si>
+  <si>
+    <t>U1,U2</t>
+  </si>
+  <si>
+    <t>SI1922EDH</t>
+  </si>
+  <si>
+    <t>SC70-6</t>
+  </si>
+  <si>
+    <t>SI1922EDH-T1-GE3CT-ND</t>
+  </si>
+  <si>
+    <t>R1,R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>2k2R</t>
+  </si>
+  <si>
+    <t>POW-IPMC</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>587-1391-2-ND</t>
+  </si>
+  <si>
+    <t>35V</t>
   </si>
   <si>
     <t>TOP</t>
@@ -90,222 +372,12 @@
     <t>F1</t>
   </si>
   <si>
-    <t>1210</t>
-  </si>
-  <si>
     <t>F4146CT-ND</t>
   </si>
   <si>
     <t>L1,L2,L3,L4</t>
   </si>
   <si>
-    <t>BEAD</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
-    <t>490-5986-1-ND</t>
-  </si>
-  <si>
-    <t>POW-8871</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>POW-61032</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>3.6uH</t>
-  </si>
-  <si>
-    <t>NRS8040T3R6NJGJ</t>
-  </si>
-  <si>
-    <t>587-2977-1-ND</t>
-  </si>
-  <si>
-    <t>4-6A</t>
-  </si>
-  <si>
-    <t>Low ESR</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>445-4116-1-ND</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t>445-8095-1-ND</t>
-  </si>
-  <si>
-    <t>4.7uH</t>
-  </si>
-  <si>
-    <t>NRS8030T4R7MJGJ</t>
-  </si>
-  <si>
-    <t>587-2969-1-ND</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
-    <t>490-6285-1-ND</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>30VBD,0.2A</t>
-  </si>
-  <si>
-    <t>SOT232</t>
-  </si>
-  <si>
-    <t>CMDSH2-3 CT-ND</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>20-TSSOP-EP</t>
-  </si>
-  <si>
-    <t>LTC3891EFE#PBF-ND</t>
-  </si>
-  <si>
-    <t>R12,R13</t>
-  </si>
-  <si>
-    <t>10kR</t>
-  </si>
-  <si>
-    <t>STOCK</t>
-  </si>
-  <si>
-    <t>✓</t>
-  </si>
-  <si>
-    <t>POW-DRV01</t>
-  </si>
-  <si>
-    <t>R1,R2,R3,R4</t>
-  </si>
-  <si>
-    <t>U1,U2</t>
-  </si>
-  <si>
-    <t>SI1922EDH</t>
-  </si>
-  <si>
-    <t>SC70-6</t>
-  </si>
-  <si>
-    <t>SI1922EDH-T1-GE3CT-ND</t>
-  </si>
-  <si>
-    <t>R10,R9</t>
-  </si>
-  <si>
-    <t>1kR</t>
-  </si>
-  <si>
-    <t>R3,R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>90k9R</t>
-  </si>
-  <si>
-    <t>311-90.9KLRCT-ND</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>54k9R</t>
-  </si>
-  <si>
-    <t>NOT FITTED</t>
-  </si>
-  <si>
-    <t>445-1266-1-ND</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>0603</t>
-  </si>
-  <si>
-    <t>445-4112-1-ND</t>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>445-5958-1-ND</t>
-  </si>
-  <si>
-    <t>C4,C5</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>478-5236-1-ND</t>
-  </si>
-  <si>
-    <t>R1,R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>2k2R</t>
-  </si>
-  <si>
-    <t>POW-DDC3350</t>
-  </si>
-  <si>
-    <t>C2,C3,C4</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>1276-2412-1-ND</t>
-  </si>
-  <si>
-    <t>6.3V</t>
-  </si>
-  <si>
-    <t>399-4872-1-ND</t>
-  </si>
-  <si>
     <t>S1,S2</t>
   </si>
   <si>
@@ -321,63 +393,6 @@
     <t>ALT1</t>
   </si>
   <si>
-    <t>POW-4000</t>
-  </si>
-  <si>
-    <t>C6,C5</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>490-1262-1-ND</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>587-1231-1-ND</t>
-  </si>
-  <si>
-    <t>490-10525-2-ND</t>
-  </si>
-  <si>
-    <t>47nF</t>
-  </si>
-  <si>
-    <t>490-6140-1-ND</t>
-  </si>
-  <si>
-    <t>POW-DDC3350A</t>
-  </si>
-  <si>
-    <t>TPS61235</t>
-  </si>
-  <si>
-    <t>9-VQFN-HR</t>
-  </si>
-  <si>
-    <t>296-44628-2-ND</t>
-  </si>
-  <si>
-    <t>POW-1540</t>
-  </si>
-  <si>
-    <t>RXX</t>
-  </si>
-  <si>
-    <t>2.3MR</t>
-  </si>
-  <si>
-    <t>POW-4000:C4</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -387,16 +402,88 @@
     <t>SOT-23</t>
   </si>
   <si>
-    <t>1727-5054-1-ND </t>
-  </si>
-  <si>
-    <t>POW-IPMC</t>
-  </si>
-  <si>
-    <t>587-1391-2-ND </t>
-  </si>
-  <si>
-    <t>35V</t>
+    <t>1727-5054-1-ND</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>100kR/1%</t>
+  </si>
+  <si>
+    <t>311-100KLRCT-ND </t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>27kR/1%</t>
+  </si>
+  <si>
+    <t>311-27.0KLRCT-ND </t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>68kR/1%</t>
+  </si>
+  <si>
+    <t>311-68.0KLRCT-ND </t>
+  </si>
+  <si>
+    <t>1MR</t>
+  </si>
+  <si>
+    <t>311-1.00MCRCT-ND </t>
+  </si>
+  <si>
+    <t>16kR</t>
+  </si>
+  <si>
+    <t>311-16.0KLRCT-ND </t>
+  </si>
+  <si>
+    <t>0.005R</t>
+  </si>
+  <si>
+    <t>RHM.005AJCT-ND</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>2 channel PMOS</t>
+  </si>
+  <si>
+    <t>SOIC8</t>
+  </si>
+  <si>
+    <t>  IRF7328PBFCT-ND </t>
+  </si>
+  <si>
+    <t>30V/8A</t>
+  </si>
+  <si>
+    <t>51kR</t>
+  </si>
+  <si>
+    <t>311-51.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>12kR/1%</t>
+  </si>
+  <si>
+    <t>311-12.0KHRCT-ND </t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>587-2001-1-ND </t>
   </si>
   <si>
     <t>ID</t>
@@ -471,13 +558,10 @@
     <t>https://www.digikey.at/products/de/capacitors/ceramic-capacitors/60?k=1210+10uF&amp;k=&amp;pkeyword=1210+10uF&amp;pv14=22&amp;FV=ffe0003c&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=0&amp;page=1&amp;quantity=0&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>Stock SIL DIP switch (see my KEIL board)</t>
+    <t>5mR Resistor</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/products/de/resistors/chip-resistor-surface-mount/52?k=&amp;pkeyword=0402+resistor&amp;pv1=800&amp;pv1291=1037&amp;FV=c0001%2C400006%2Cffe00034&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=0&amp;page=1&amp;quantity=0&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
   </si>
 </sst>
 </file>
@@ -488,7 +572,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -522,12 +606,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Sans"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -593,7 +671,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -638,23 +716,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -675,12 +745,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IV41"/>
+  <dimension ref="1:53"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="D7" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topRight" activeCell="D54" activeCellId="0" sqref="D54:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -689,12 +759,12 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.8979591836735"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.1428571428571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="24.8214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.5867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.3826530612245"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="3" width="9.21428571428571"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="4" width="15.75"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.3418367346939"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.1071428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.03061224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.65816326530612"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.5918367346939"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.4489795918367"/>
@@ -981,6 +1051,774 @@
       <c r="IT1" s="6"/>
       <c r="IU1" s="6"/>
       <c r="IV1" s="6"/>
+      <c r="IW1" s="0"/>
+      <c r="IX1" s="0"/>
+      <c r="IY1" s="0"/>
+      <c r="IZ1" s="0"/>
+      <c r="JA1" s="0"/>
+      <c r="JB1" s="0"/>
+      <c r="JC1" s="0"/>
+      <c r="JD1" s="0"/>
+      <c r="JE1" s="0"/>
+      <c r="JF1" s="0"/>
+      <c r="JG1" s="0"/>
+      <c r="JH1" s="0"/>
+      <c r="JI1" s="0"/>
+      <c r="JJ1" s="0"/>
+      <c r="JK1" s="0"/>
+      <c r="JL1" s="0"/>
+      <c r="JM1" s="0"/>
+      <c r="JN1" s="0"/>
+      <c r="JO1" s="0"/>
+      <c r="JP1" s="0"/>
+      <c r="JQ1" s="0"/>
+      <c r="JR1" s="0"/>
+      <c r="JS1" s="0"/>
+      <c r="JT1" s="0"/>
+      <c r="JU1" s="0"/>
+      <c r="JV1" s="0"/>
+      <c r="JW1" s="0"/>
+      <c r="JX1" s="0"/>
+      <c r="JY1" s="0"/>
+      <c r="JZ1" s="0"/>
+      <c r="KA1" s="0"/>
+      <c r="KB1" s="0"/>
+      <c r="KC1" s="0"/>
+      <c r="KD1" s="0"/>
+      <c r="KE1" s="0"/>
+      <c r="KF1" s="0"/>
+      <c r="KG1" s="0"/>
+      <c r="KH1" s="0"/>
+      <c r="KI1" s="0"/>
+      <c r="KJ1" s="0"/>
+      <c r="KK1" s="0"/>
+      <c r="KL1" s="0"/>
+      <c r="KM1" s="0"/>
+      <c r="KN1" s="0"/>
+      <c r="KO1" s="0"/>
+      <c r="KP1" s="0"/>
+      <c r="KQ1" s="0"/>
+      <c r="KR1" s="0"/>
+      <c r="KS1" s="0"/>
+      <c r="KT1" s="0"/>
+      <c r="KU1" s="0"/>
+      <c r="KV1" s="0"/>
+      <c r="KW1" s="0"/>
+      <c r="KX1" s="0"/>
+      <c r="KY1" s="0"/>
+      <c r="KZ1" s="0"/>
+      <c r="LA1" s="0"/>
+      <c r="LB1" s="0"/>
+      <c r="LC1" s="0"/>
+      <c r="LD1" s="0"/>
+      <c r="LE1" s="0"/>
+      <c r="LF1" s="0"/>
+      <c r="LG1" s="0"/>
+      <c r="LH1" s="0"/>
+      <c r="LI1" s="0"/>
+      <c r="LJ1" s="0"/>
+      <c r="LK1" s="0"/>
+      <c r="LL1" s="0"/>
+      <c r="LM1" s="0"/>
+      <c r="LN1" s="0"/>
+      <c r="LO1" s="0"/>
+      <c r="LP1" s="0"/>
+      <c r="LQ1" s="0"/>
+      <c r="LR1" s="0"/>
+      <c r="LS1" s="0"/>
+      <c r="LT1" s="0"/>
+      <c r="LU1" s="0"/>
+      <c r="LV1" s="0"/>
+      <c r="LW1" s="0"/>
+      <c r="LX1" s="0"/>
+      <c r="LY1" s="0"/>
+      <c r="LZ1" s="0"/>
+      <c r="MA1" s="0"/>
+      <c r="MB1" s="0"/>
+      <c r="MC1" s="0"/>
+      <c r="MD1" s="0"/>
+      <c r="ME1" s="0"/>
+      <c r="MF1" s="0"/>
+      <c r="MG1" s="0"/>
+      <c r="MH1" s="0"/>
+      <c r="MI1" s="0"/>
+      <c r="MJ1" s="0"/>
+      <c r="MK1" s="0"/>
+      <c r="ML1" s="0"/>
+      <c r="MM1" s="0"/>
+      <c r="MN1" s="0"/>
+      <c r="MO1" s="0"/>
+      <c r="MP1" s="0"/>
+      <c r="MQ1" s="0"/>
+      <c r="MR1" s="0"/>
+      <c r="MS1" s="0"/>
+      <c r="MT1" s="0"/>
+      <c r="MU1" s="0"/>
+      <c r="MV1" s="0"/>
+      <c r="MW1" s="0"/>
+      <c r="MX1" s="0"/>
+      <c r="MY1" s="0"/>
+      <c r="MZ1" s="0"/>
+      <c r="NA1" s="0"/>
+      <c r="NB1" s="0"/>
+      <c r="NC1" s="0"/>
+      <c r="ND1" s="0"/>
+      <c r="NE1" s="0"/>
+      <c r="NF1" s="0"/>
+      <c r="NG1" s="0"/>
+      <c r="NH1" s="0"/>
+      <c r="NI1" s="0"/>
+      <c r="NJ1" s="0"/>
+      <c r="NK1" s="0"/>
+      <c r="NL1" s="0"/>
+      <c r="NM1" s="0"/>
+      <c r="NN1" s="0"/>
+      <c r="NO1" s="0"/>
+      <c r="NP1" s="0"/>
+      <c r="NQ1" s="0"/>
+      <c r="NR1" s="0"/>
+      <c r="NS1" s="0"/>
+      <c r="NT1" s="0"/>
+      <c r="NU1" s="0"/>
+      <c r="NV1" s="0"/>
+      <c r="NW1" s="0"/>
+      <c r="NX1" s="0"/>
+      <c r="NY1" s="0"/>
+      <c r="NZ1" s="0"/>
+      <c r="OA1" s="0"/>
+      <c r="OB1" s="0"/>
+      <c r="OC1" s="0"/>
+      <c r="OD1" s="0"/>
+      <c r="OE1" s="0"/>
+      <c r="OF1" s="0"/>
+      <c r="OG1" s="0"/>
+      <c r="OH1" s="0"/>
+      <c r="OI1" s="0"/>
+      <c r="OJ1" s="0"/>
+      <c r="OK1" s="0"/>
+      <c r="OL1" s="0"/>
+      <c r="OM1" s="0"/>
+      <c r="ON1" s="0"/>
+      <c r="OO1" s="0"/>
+      <c r="OP1" s="0"/>
+      <c r="OQ1" s="0"/>
+      <c r="OR1" s="0"/>
+      <c r="OS1" s="0"/>
+      <c r="OT1" s="0"/>
+      <c r="OU1" s="0"/>
+      <c r="OV1" s="0"/>
+      <c r="OW1" s="0"/>
+      <c r="OX1" s="0"/>
+      <c r="OY1" s="0"/>
+      <c r="OZ1" s="0"/>
+      <c r="PA1" s="0"/>
+      <c r="PB1" s="0"/>
+      <c r="PC1" s="0"/>
+      <c r="PD1" s="0"/>
+      <c r="PE1" s="0"/>
+      <c r="PF1" s="0"/>
+      <c r="PG1" s="0"/>
+      <c r="PH1" s="0"/>
+      <c r="PI1" s="0"/>
+      <c r="PJ1" s="0"/>
+      <c r="PK1" s="0"/>
+      <c r="PL1" s="0"/>
+      <c r="PM1" s="0"/>
+      <c r="PN1" s="0"/>
+      <c r="PO1" s="0"/>
+      <c r="PP1" s="0"/>
+      <c r="PQ1" s="0"/>
+      <c r="PR1" s="0"/>
+      <c r="PS1" s="0"/>
+      <c r="PT1" s="0"/>
+      <c r="PU1" s="0"/>
+      <c r="PV1" s="0"/>
+      <c r="PW1" s="0"/>
+      <c r="PX1" s="0"/>
+      <c r="PY1" s="0"/>
+      <c r="PZ1" s="0"/>
+      <c r="QA1" s="0"/>
+      <c r="QB1" s="0"/>
+      <c r="QC1" s="0"/>
+      <c r="QD1" s="0"/>
+      <c r="QE1" s="0"/>
+      <c r="QF1" s="0"/>
+      <c r="QG1" s="0"/>
+      <c r="QH1" s="0"/>
+      <c r="QI1" s="0"/>
+      <c r="QJ1" s="0"/>
+      <c r="QK1" s="0"/>
+      <c r="QL1" s="0"/>
+      <c r="QM1" s="0"/>
+      <c r="QN1" s="0"/>
+      <c r="QO1" s="0"/>
+      <c r="QP1" s="0"/>
+      <c r="QQ1" s="0"/>
+      <c r="QR1" s="0"/>
+      <c r="QS1" s="0"/>
+      <c r="QT1" s="0"/>
+      <c r="QU1" s="0"/>
+      <c r="QV1" s="0"/>
+      <c r="QW1" s="0"/>
+      <c r="QX1" s="0"/>
+      <c r="QY1" s="0"/>
+      <c r="QZ1" s="0"/>
+      <c r="RA1" s="0"/>
+      <c r="RB1" s="0"/>
+      <c r="RC1" s="0"/>
+      <c r="RD1" s="0"/>
+      <c r="RE1" s="0"/>
+      <c r="RF1" s="0"/>
+      <c r="RG1" s="0"/>
+      <c r="RH1" s="0"/>
+      <c r="RI1" s="0"/>
+      <c r="RJ1" s="0"/>
+      <c r="RK1" s="0"/>
+      <c r="RL1" s="0"/>
+      <c r="RM1" s="0"/>
+      <c r="RN1" s="0"/>
+      <c r="RO1" s="0"/>
+      <c r="RP1" s="0"/>
+      <c r="RQ1" s="0"/>
+      <c r="RR1" s="0"/>
+      <c r="RS1" s="0"/>
+      <c r="RT1" s="0"/>
+      <c r="RU1" s="0"/>
+      <c r="RV1" s="0"/>
+      <c r="RW1" s="0"/>
+      <c r="RX1" s="0"/>
+      <c r="RY1" s="0"/>
+      <c r="RZ1" s="0"/>
+      <c r="SA1" s="0"/>
+      <c r="SB1" s="0"/>
+      <c r="SC1" s="0"/>
+      <c r="SD1" s="0"/>
+      <c r="SE1" s="0"/>
+      <c r="SF1" s="0"/>
+      <c r="SG1" s="0"/>
+      <c r="SH1" s="0"/>
+      <c r="SI1" s="0"/>
+      <c r="SJ1" s="0"/>
+      <c r="SK1" s="0"/>
+      <c r="SL1" s="0"/>
+      <c r="SM1" s="0"/>
+      <c r="SN1" s="0"/>
+      <c r="SO1" s="0"/>
+      <c r="SP1" s="0"/>
+      <c r="SQ1" s="0"/>
+      <c r="SR1" s="0"/>
+      <c r="SS1" s="0"/>
+      <c r="ST1" s="0"/>
+      <c r="SU1" s="0"/>
+      <c r="SV1" s="0"/>
+      <c r="SW1" s="0"/>
+      <c r="SX1" s="0"/>
+      <c r="SY1" s="0"/>
+      <c r="SZ1" s="0"/>
+      <c r="TA1" s="0"/>
+      <c r="TB1" s="0"/>
+      <c r="TC1" s="0"/>
+      <c r="TD1" s="0"/>
+      <c r="TE1" s="0"/>
+      <c r="TF1" s="0"/>
+      <c r="TG1" s="0"/>
+      <c r="TH1" s="0"/>
+      <c r="TI1" s="0"/>
+      <c r="TJ1" s="0"/>
+      <c r="TK1" s="0"/>
+      <c r="TL1" s="0"/>
+      <c r="TM1" s="0"/>
+      <c r="TN1" s="0"/>
+      <c r="TO1" s="0"/>
+      <c r="TP1" s="0"/>
+      <c r="TQ1" s="0"/>
+      <c r="TR1" s="0"/>
+      <c r="TS1" s="0"/>
+      <c r="TT1" s="0"/>
+      <c r="TU1" s="0"/>
+      <c r="TV1" s="0"/>
+      <c r="TW1" s="0"/>
+      <c r="TX1" s="0"/>
+      <c r="TY1" s="0"/>
+      <c r="TZ1" s="0"/>
+      <c r="UA1" s="0"/>
+      <c r="UB1" s="0"/>
+      <c r="UC1" s="0"/>
+      <c r="UD1" s="0"/>
+      <c r="UE1" s="0"/>
+      <c r="UF1" s="0"/>
+      <c r="UG1" s="0"/>
+      <c r="UH1" s="0"/>
+      <c r="UI1" s="0"/>
+      <c r="UJ1" s="0"/>
+      <c r="UK1" s="0"/>
+      <c r="UL1" s="0"/>
+      <c r="UM1" s="0"/>
+      <c r="UN1" s="0"/>
+      <c r="UO1" s="0"/>
+      <c r="UP1" s="0"/>
+      <c r="UQ1" s="0"/>
+      <c r="UR1" s="0"/>
+      <c r="US1" s="0"/>
+      <c r="UT1" s="0"/>
+      <c r="UU1" s="0"/>
+      <c r="UV1" s="0"/>
+      <c r="UW1" s="0"/>
+      <c r="UX1" s="0"/>
+      <c r="UY1" s="0"/>
+      <c r="UZ1" s="0"/>
+      <c r="VA1" s="0"/>
+      <c r="VB1" s="0"/>
+      <c r="VC1" s="0"/>
+      <c r="VD1" s="0"/>
+      <c r="VE1" s="0"/>
+      <c r="VF1" s="0"/>
+      <c r="VG1" s="0"/>
+      <c r="VH1" s="0"/>
+      <c r="VI1" s="0"/>
+      <c r="VJ1" s="0"/>
+      <c r="VK1" s="0"/>
+      <c r="VL1" s="0"/>
+      <c r="VM1" s="0"/>
+      <c r="VN1" s="0"/>
+      <c r="VO1" s="0"/>
+      <c r="VP1" s="0"/>
+      <c r="VQ1" s="0"/>
+      <c r="VR1" s="0"/>
+      <c r="VS1" s="0"/>
+      <c r="VT1" s="0"/>
+      <c r="VU1" s="0"/>
+      <c r="VV1" s="0"/>
+      <c r="VW1" s="0"/>
+      <c r="VX1" s="0"/>
+      <c r="VY1" s="0"/>
+      <c r="VZ1" s="0"/>
+      <c r="WA1" s="0"/>
+      <c r="WB1" s="0"/>
+      <c r="WC1" s="0"/>
+      <c r="WD1" s="0"/>
+      <c r="WE1" s="0"/>
+      <c r="WF1" s="0"/>
+      <c r="WG1" s="0"/>
+      <c r="WH1" s="0"/>
+      <c r="WI1" s="0"/>
+      <c r="WJ1" s="0"/>
+      <c r="WK1" s="0"/>
+      <c r="WL1" s="0"/>
+      <c r="WM1" s="0"/>
+      <c r="WN1" s="0"/>
+      <c r="WO1" s="0"/>
+      <c r="WP1" s="0"/>
+      <c r="WQ1" s="0"/>
+      <c r="WR1" s="0"/>
+      <c r="WS1" s="0"/>
+      <c r="WT1" s="0"/>
+      <c r="WU1" s="0"/>
+      <c r="WV1" s="0"/>
+      <c r="WW1" s="0"/>
+      <c r="WX1" s="0"/>
+      <c r="WY1" s="0"/>
+      <c r="WZ1" s="0"/>
+      <c r="XA1" s="0"/>
+      <c r="XB1" s="0"/>
+      <c r="XC1" s="0"/>
+      <c r="XD1" s="0"/>
+      <c r="XE1" s="0"/>
+      <c r="XF1" s="0"/>
+      <c r="XG1" s="0"/>
+      <c r="XH1" s="0"/>
+      <c r="XI1" s="0"/>
+      <c r="XJ1" s="0"/>
+      <c r="XK1" s="0"/>
+      <c r="XL1" s="0"/>
+      <c r="XM1" s="0"/>
+      <c r="XN1" s="0"/>
+      <c r="XO1" s="0"/>
+      <c r="XP1" s="0"/>
+      <c r="XQ1" s="0"/>
+      <c r="XR1" s="0"/>
+      <c r="XS1" s="0"/>
+      <c r="XT1" s="0"/>
+      <c r="XU1" s="0"/>
+      <c r="XV1" s="0"/>
+      <c r="XW1" s="0"/>
+      <c r="XX1" s="0"/>
+      <c r="XY1" s="0"/>
+      <c r="XZ1" s="0"/>
+      <c r="YA1" s="0"/>
+      <c r="YB1" s="0"/>
+      <c r="YC1" s="0"/>
+      <c r="YD1" s="0"/>
+      <c r="YE1" s="0"/>
+      <c r="YF1" s="0"/>
+      <c r="YG1" s="0"/>
+      <c r="YH1" s="0"/>
+      <c r="YI1" s="0"/>
+      <c r="YJ1" s="0"/>
+      <c r="YK1" s="0"/>
+      <c r="YL1" s="0"/>
+      <c r="YM1" s="0"/>
+      <c r="YN1" s="0"/>
+      <c r="YO1" s="0"/>
+      <c r="YP1" s="0"/>
+      <c r="YQ1" s="0"/>
+      <c r="YR1" s="0"/>
+      <c r="YS1" s="0"/>
+      <c r="YT1" s="0"/>
+      <c r="YU1" s="0"/>
+      <c r="YV1" s="0"/>
+      <c r="YW1" s="0"/>
+      <c r="YX1" s="0"/>
+      <c r="YY1" s="0"/>
+      <c r="YZ1" s="0"/>
+      <c r="ZA1" s="0"/>
+      <c r="ZB1" s="0"/>
+      <c r="ZC1" s="0"/>
+      <c r="ZD1" s="0"/>
+      <c r="ZE1" s="0"/>
+      <c r="ZF1" s="0"/>
+      <c r="ZG1" s="0"/>
+      <c r="ZH1" s="0"/>
+      <c r="ZI1" s="0"/>
+      <c r="ZJ1" s="0"/>
+      <c r="ZK1" s="0"/>
+      <c r="ZL1" s="0"/>
+      <c r="ZM1" s="0"/>
+      <c r="ZN1" s="0"/>
+      <c r="ZO1" s="0"/>
+      <c r="ZP1" s="0"/>
+      <c r="ZQ1" s="0"/>
+      <c r="ZR1" s="0"/>
+      <c r="ZS1" s="0"/>
+      <c r="ZT1" s="0"/>
+      <c r="ZU1" s="0"/>
+      <c r="ZV1" s="0"/>
+      <c r="ZW1" s="0"/>
+      <c r="ZX1" s="0"/>
+      <c r="ZY1" s="0"/>
+      <c r="ZZ1" s="0"/>
+      <c r="AAA1" s="0"/>
+      <c r="AAB1" s="0"/>
+      <c r="AAC1" s="0"/>
+      <c r="AAD1" s="0"/>
+      <c r="AAE1" s="0"/>
+      <c r="AAF1" s="0"/>
+      <c r="AAG1" s="0"/>
+      <c r="AAH1" s="0"/>
+      <c r="AAI1" s="0"/>
+      <c r="AAJ1" s="0"/>
+      <c r="AAK1" s="0"/>
+      <c r="AAL1" s="0"/>
+      <c r="AAM1" s="0"/>
+      <c r="AAN1" s="0"/>
+      <c r="AAO1" s="0"/>
+      <c r="AAP1" s="0"/>
+      <c r="AAQ1" s="0"/>
+      <c r="AAR1" s="0"/>
+      <c r="AAS1" s="0"/>
+      <c r="AAT1" s="0"/>
+      <c r="AAU1" s="0"/>
+      <c r="AAV1" s="0"/>
+      <c r="AAW1" s="0"/>
+      <c r="AAX1" s="0"/>
+      <c r="AAY1" s="0"/>
+      <c r="AAZ1" s="0"/>
+      <c r="ABA1" s="0"/>
+      <c r="ABB1" s="0"/>
+      <c r="ABC1" s="0"/>
+      <c r="ABD1" s="0"/>
+      <c r="ABE1" s="0"/>
+      <c r="ABF1" s="0"/>
+      <c r="ABG1" s="0"/>
+      <c r="ABH1" s="0"/>
+      <c r="ABI1" s="0"/>
+      <c r="ABJ1" s="0"/>
+      <c r="ABK1" s="0"/>
+      <c r="ABL1" s="0"/>
+      <c r="ABM1" s="0"/>
+      <c r="ABN1" s="0"/>
+      <c r="ABO1" s="0"/>
+      <c r="ABP1" s="0"/>
+      <c r="ABQ1" s="0"/>
+      <c r="ABR1" s="0"/>
+      <c r="ABS1" s="0"/>
+      <c r="ABT1" s="0"/>
+      <c r="ABU1" s="0"/>
+      <c r="ABV1" s="0"/>
+      <c r="ABW1" s="0"/>
+      <c r="ABX1" s="0"/>
+      <c r="ABY1" s="0"/>
+      <c r="ABZ1" s="0"/>
+      <c r="ACA1" s="0"/>
+      <c r="ACB1" s="0"/>
+      <c r="ACC1" s="0"/>
+      <c r="ACD1" s="0"/>
+      <c r="ACE1" s="0"/>
+      <c r="ACF1" s="0"/>
+      <c r="ACG1" s="0"/>
+      <c r="ACH1" s="0"/>
+      <c r="ACI1" s="0"/>
+      <c r="ACJ1" s="0"/>
+      <c r="ACK1" s="0"/>
+      <c r="ACL1" s="0"/>
+      <c r="ACM1" s="0"/>
+      <c r="ACN1" s="0"/>
+      <c r="ACO1" s="0"/>
+      <c r="ACP1" s="0"/>
+      <c r="ACQ1" s="0"/>
+      <c r="ACR1" s="0"/>
+      <c r="ACS1" s="0"/>
+      <c r="ACT1" s="0"/>
+      <c r="ACU1" s="0"/>
+      <c r="ACV1" s="0"/>
+      <c r="ACW1" s="0"/>
+      <c r="ACX1" s="0"/>
+      <c r="ACY1" s="0"/>
+      <c r="ACZ1" s="0"/>
+      <c r="ADA1" s="0"/>
+      <c r="ADB1" s="0"/>
+      <c r="ADC1" s="0"/>
+      <c r="ADD1" s="0"/>
+      <c r="ADE1" s="0"/>
+      <c r="ADF1" s="0"/>
+      <c r="ADG1" s="0"/>
+      <c r="ADH1" s="0"/>
+      <c r="ADI1" s="0"/>
+      <c r="ADJ1" s="0"/>
+      <c r="ADK1" s="0"/>
+      <c r="ADL1" s="0"/>
+      <c r="ADM1" s="0"/>
+      <c r="ADN1" s="0"/>
+      <c r="ADO1" s="0"/>
+      <c r="ADP1" s="0"/>
+      <c r="ADQ1" s="0"/>
+      <c r="ADR1" s="0"/>
+      <c r="ADS1" s="0"/>
+      <c r="ADT1" s="0"/>
+      <c r="ADU1" s="0"/>
+      <c r="ADV1" s="0"/>
+      <c r="ADW1" s="0"/>
+      <c r="ADX1" s="0"/>
+      <c r="ADY1" s="0"/>
+      <c r="ADZ1" s="0"/>
+      <c r="AEA1" s="0"/>
+      <c r="AEB1" s="0"/>
+      <c r="AEC1" s="0"/>
+      <c r="AED1" s="0"/>
+      <c r="AEE1" s="0"/>
+      <c r="AEF1" s="0"/>
+      <c r="AEG1" s="0"/>
+      <c r="AEH1" s="0"/>
+      <c r="AEI1" s="0"/>
+      <c r="AEJ1" s="0"/>
+      <c r="AEK1" s="0"/>
+      <c r="AEL1" s="0"/>
+      <c r="AEM1" s="0"/>
+      <c r="AEN1" s="0"/>
+      <c r="AEO1" s="0"/>
+      <c r="AEP1" s="0"/>
+      <c r="AEQ1" s="0"/>
+      <c r="AER1" s="0"/>
+      <c r="AES1" s="0"/>
+      <c r="AET1" s="0"/>
+      <c r="AEU1" s="0"/>
+      <c r="AEV1" s="0"/>
+      <c r="AEW1" s="0"/>
+      <c r="AEX1" s="0"/>
+      <c r="AEY1" s="0"/>
+      <c r="AEZ1" s="0"/>
+      <c r="AFA1" s="0"/>
+      <c r="AFB1" s="0"/>
+      <c r="AFC1" s="0"/>
+      <c r="AFD1" s="0"/>
+      <c r="AFE1" s="0"/>
+      <c r="AFF1" s="0"/>
+      <c r="AFG1" s="0"/>
+      <c r="AFH1" s="0"/>
+      <c r="AFI1" s="0"/>
+      <c r="AFJ1" s="0"/>
+      <c r="AFK1" s="0"/>
+      <c r="AFL1" s="0"/>
+      <c r="AFM1" s="0"/>
+      <c r="AFN1" s="0"/>
+      <c r="AFO1" s="0"/>
+      <c r="AFP1" s="0"/>
+      <c r="AFQ1" s="0"/>
+      <c r="AFR1" s="0"/>
+      <c r="AFS1" s="0"/>
+      <c r="AFT1" s="0"/>
+      <c r="AFU1" s="0"/>
+      <c r="AFV1" s="0"/>
+      <c r="AFW1" s="0"/>
+      <c r="AFX1" s="0"/>
+      <c r="AFY1" s="0"/>
+      <c r="AFZ1" s="0"/>
+      <c r="AGA1" s="0"/>
+      <c r="AGB1" s="0"/>
+      <c r="AGC1" s="0"/>
+      <c r="AGD1" s="0"/>
+      <c r="AGE1" s="0"/>
+      <c r="AGF1" s="0"/>
+      <c r="AGG1" s="0"/>
+      <c r="AGH1" s="0"/>
+      <c r="AGI1" s="0"/>
+      <c r="AGJ1" s="0"/>
+      <c r="AGK1" s="0"/>
+      <c r="AGL1" s="0"/>
+      <c r="AGM1" s="0"/>
+      <c r="AGN1" s="0"/>
+      <c r="AGO1" s="0"/>
+      <c r="AGP1" s="0"/>
+      <c r="AGQ1" s="0"/>
+      <c r="AGR1" s="0"/>
+      <c r="AGS1" s="0"/>
+      <c r="AGT1" s="0"/>
+      <c r="AGU1" s="0"/>
+      <c r="AGV1" s="0"/>
+      <c r="AGW1" s="0"/>
+      <c r="AGX1" s="0"/>
+      <c r="AGY1" s="0"/>
+      <c r="AGZ1" s="0"/>
+      <c r="AHA1" s="0"/>
+      <c r="AHB1" s="0"/>
+      <c r="AHC1" s="0"/>
+      <c r="AHD1" s="0"/>
+      <c r="AHE1" s="0"/>
+      <c r="AHF1" s="0"/>
+      <c r="AHG1" s="0"/>
+      <c r="AHH1" s="0"/>
+      <c r="AHI1" s="0"/>
+      <c r="AHJ1" s="0"/>
+      <c r="AHK1" s="0"/>
+      <c r="AHL1" s="0"/>
+      <c r="AHM1" s="0"/>
+      <c r="AHN1" s="0"/>
+      <c r="AHO1" s="0"/>
+      <c r="AHP1" s="0"/>
+      <c r="AHQ1" s="0"/>
+      <c r="AHR1" s="0"/>
+      <c r="AHS1" s="0"/>
+      <c r="AHT1" s="0"/>
+      <c r="AHU1" s="0"/>
+      <c r="AHV1" s="0"/>
+      <c r="AHW1" s="0"/>
+      <c r="AHX1" s="0"/>
+      <c r="AHY1" s="0"/>
+      <c r="AHZ1" s="0"/>
+      <c r="AIA1" s="0"/>
+      <c r="AIB1" s="0"/>
+      <c r="AIC1" s="0"/>
+      <c r="AID1" s="0"/>
+      <c r="AIE1" s="0"/>
+      <c r="AIF1" s="0"/>
+      <c r="AIG1" s="0"/>
+      <c r="AIH1" s="0"/>
+      <c r="AII1" s="0"/>
+      <c r="AIJ1" s="0"/>
+      <c r="AIK1" s="0"/>
+      <c r="AIL1" s="0"/>
+      <c r="AIM1" s="0"/>
+      <c r="AIN1" s="0"/>
+      <c r="AIO1" s="0"/>
+      <c r="AIP1" s="0"/>
+      <c r="AIQ1" s="0"/>
+      <c r="AIR1" s="0"/>
+      <c r="AIS1" s="0"/>
+      <c r="AIT1" s="0"/>
+      <c r="AIU1" s="0"/>
+      <c r="AIV1" s="0"/>
+      <c r="AIW1" s="0"/>
+      <c r="AIX1" s="0"/>
+      <c r="AIY1" s="0"/>
+      <c r="AIZ1" s="0"/>
+      <c r="AJA1" s="0"/>
+      <c r="AJB1" s="0"/>
+      <c r="AJC1" s="0"/>
+      <c r="AJD1" s="0"/>
+      <c r="AJE1" s="0"/>
+      <c r="AJF1" s="0"/>
+      <c r="AJG1" s="0"/>
+      <c r="AJH1" s="0"/>
+      <c r="AJI1" s="0"/>
+      <c r="AJJ1" s="0"/>
+      <c r="AJK1" s="0"/>
+      <c r="AJL1" s="0"/>
+      <c r="AJM1" s="0"/>
+      <c r="AJN1" s="0"/>
+      <c r="AJO1" s="0"/>
+      <c r="AJP1" s="0"/>
+      <c r="AJQ1" s="0"/>
+      <c r="AJR1" s="0"/>
+      <c r="AJS1" s="0"/>
+      <c r="AJT1" s="0"/>
+      <c r="AJU1" s="0"/>
+      <c r="AJV1" s="0"/>
+      <c r="AJW1" s="0"/>
+      <c r="AJX1" s="0"/>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="5" customFormat="true" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -998,22 +1836,24 @@
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="1" t="n">
+        <v>9</v>
+      </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="0"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="0"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
@@ -1024,29 +1864,37 @@
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
@@ -1060,19 +1908,19 @@
     </row>
     <row r="5" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
@@ -1086,19 +1934,19 @@
     </row>
     <row r="6" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
@@ -1112,19 +1960,19 @@
     </row>
     <row r="7" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
@@ -1138,28 +1986,24 @@
     </row>
     <row r="8" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1168,19 +2012,19 @@
     </row>
     <row r="9" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
@@ -1194,19 +2038,17 @@
     </row>
     <row r="10" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
@@ -1220,23 +2062,27 @@
     </row>
     <row r="11" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1246,21 +2092,21 @@
     </row>
     <row r="12" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1272,101 +2118,113 @@
     </row>
     <row r="13" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="0"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="0"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="1"/>
+      <c r="F15" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="0"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>402</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1376,395 +2234,271 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="1" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="G19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>65</v>
+      </c>
       <c r="G22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2" t="n">
         <v>2312</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>93</v>
@@ -1773,250 +2507,458 @@
         <v>94</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
+      <c r="F32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="H33" s="0"/>
+      <c r="K33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F37" s="1"/>
+      <c r="G37" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="F41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="B43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>123</v>
+      <c r="B50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2035,193 +2977,162 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C2" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="topRight" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topRight" activeCell="B22" activeCellId="1" sqref="D54:D55 B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="10.4489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="58.4438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="9.55612244897959"/>
-    <col collapsed="false" hidden="false" max="256" min="4" style="14" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="10.4489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="58.4438775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="9.55612244897959"/>
+    <col collapsed="false" hidden="false" max="256" min="4" style="12" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="9.87244897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>125</v>
+      <c r="A1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>128</v>
+      <c r="B2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>130</v>
+      <c r="B3" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>132</v>
+      <c r="B4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>134</v>
+      <c r="B5" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>136</v>
+      <c r="B6" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>138</v>
+      <c r="B7" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>140</v>
+      <c r="B8" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>141</v>
+      <c r="B9" s="0"/>
+      <c r="C9" s="12" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="A10" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>143</v>
+      <c r="B10" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>145</v>
+      <c r="B11" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+      <c r="A12" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="14" width="10.4489795918367"/>
-    <col collapsed="false" hidden="false" max="256" min="3" style="14" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="9.87244897959184"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>150</v>
+      <c r="B12" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
